--- a/my_notebook/New URL project 2020-02 - Petr.xlsx
+++ b/my_notebook/New URL project 2020-02 - Petr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\box_geomatrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\box_geomatrix\geomatrix\my_notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3806,15 +3806,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>7</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>16</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>19</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>20</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>21</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>22</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>23</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>24</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>25</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>26</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -4245,7 +4245,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>172</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>176</v>
       </c>
@@ -4318,8 +4318,11 @@
       <c r="M15" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>201</v>
       </c>
@@ -4355,8 +4358,11 @@
       <c r="M16" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="4">
         <v>210</v>
       </c>
@@ -4392,8 +4398,11 @@
       <c r="M17" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4">
         <v>211</v>
       </c>
@@ -4429,8 +4438,11 @@
       <c r="M18" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>214</v>
       </c>
@@ -4469,7 +4481,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="4">
         <v>215</v>
       </c>
@@ -4508,7 +4520,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="4">
         <v>216</v>
       </c>
@@ -4546,8 +4558,11 @@
       <c r="M21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="4">
         <v>217</v>
       </c>
@@ -4585,8 +4600,11 @@
       <c r="M22" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="30"/>
       <c r="B23" s="47" t="s">
         <v>110</v>
@@ -4619,7 +4637,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="4">
         <v>218</v>
       </c>
@@ -4651,8 +4669,11 @@
       <c r="M24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="4">
         <v>219</v>
       </c>
@@ -4685,6 +4706,9 @@
       </c>
       <c r="M25" t="s">
         <v>209</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/my_notebook/New URL project 2020-02 - Petr.xlsx
+++ b/my_notebook/New URL project 2020-02 - Petr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -673,6 +667,9 @@
   </si>
   <si>
     <t>selenium</t>
+  </si>
+  <si>
+    <t>отправленно</t>
   </si>
 </sst>
 </file>
@@ -3806,15 +3803,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>7</v>
       </c>
@@ -3885,8 +3886,14 @@
       <c r="L2" s="45" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>16</v>
       </c>
@@ -3918,7 +3925,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -3950,7 +3957,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>19</v>
       </c>
@@ -3982,7 +3989,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>20</v>
       </c>
@@ -4014,7 +4021,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>21</v>
       </c>
@@ -4048,8 +4055,14 @@
       <c r="M7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>22</v>
       </c>
@@ -4081,7 +4094,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>23</v>
       </c>
@@ -4113,7 +4126,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>24</v>
       </c>
@@ -4145,7 +4158,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>25</v>
       </c>
@@ -4176,8 +4189,17 @@
       <c r="L11" s="45" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>26</v>
       </c>
@@ -4211,8 +4233,14 @@
       <c r="M12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -4244,8 +4272,14 @@
       <c r="M13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>172</v>
       </c>
@@ -4282,7 +4316,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>176</v>
       </c>
@@ -4321,8 +4355,11 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>201</v>
       </c>
@@ -4361,8 +4398,11 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
         <v>210</v>
       </c>
@@ -4401,8 +4441,11 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
         <v>211</v>
       </c>
@@ -4441,8 +4484,11 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
         <v>214</v>
       </c>
@@ -4481,7 +4527,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
         <v>215</v>
       </c>
@@ -4520,7 +4566,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="4">
         <v>216</v>
       </c>
@@ -4561,8 +4607,11 @@
       <c r="N21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4">
         <v>217</v>
       </c>
@@ -4603,8 +4652,11 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="30"/>
       <c r="B23" s="47" t="s">
         <v>110</v>
@@ -4637,7 +4689,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="4">
         <v>218</v>
       </c>
@@ -4672,8 +4724,11 @@
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4">
         <v>219</v>
       </c>
@@ -4709,6 +4764,9 @@
       </c>
       <c r="N25">
         <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4734,5 +4792,6 @@
     <hyperlink ref="G4" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/my_notebook/New URL project 2020-02 - Petr.xlsx
+++ b/my_notebook/New URL project 2020-02 - Petr.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -3806,7 +3806,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3923,6 +3923,9 @@
       </c>
       <c r="L3" s="45" t="s">
         <v>208</v>
+      </c>
+      <c r="M3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:15">

--- a/my_notebook/New URL project 2020-02 - Petr.xlsx
+++ b/my_notebook/New URL project 2020-02 - Petr.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -3806,7 +3806,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3990,6 +3990,12 @@
       </c>
       <c r="L5" s="45" t="s">
         <v>208</v>
+      </c>
+      <c r="M5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15">

--- a/my_notebook/New URL project 2020-02 - Petr.xlsx
+++ b/my_notebook/New URL project 2020-02 - Petr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -673,6 +667,9 @@
   </si>
   <si>
     <t>selenium</t>
+  </si>
+  <si>
+    <t>отправленно</t>
   </si>
 </sst>
 </file>
@@ -3806,15 +3803,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>7</v>
       </c>
@@ -3885,8 +3886,14 @@
       <c r="L2" s="45" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>16</v>
       </c>
@@ -3917,8 +3924,11 @@
       <c r="L3" s="45" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>19</v>
       </c>
@@ -3981,8 +3991,14 @@
       <c r="L5" s="45" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>20</v>
       </c>
@@ -4014,7 +4030,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>21</v>
       </c>
@@ -4048,8 +4064,14 @@
       <c r="M7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>22</v>
       </c>
@@ -4081,7 +4103,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>23</v>
       </c>
@@ -4113,7 +4135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>24</v>
       </c>
@@ -4145,7 +4167,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>25</v>
       </c>
@@ -4176,8 +4198,17 @@
       <c r="L11" s="45" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>26</v>
       </c>
@@ -4211,8 +4242,14 @@
       <c r="M12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -4244,8 +4281,14 @@
       <c r="M13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>172</v>
       </c>
@@ -4282,7 +4325,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>176</v>
       </c>
@@ -4321,8 +4364,11 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>201</v>
       </c>
@@ -4361,8 +4407,11 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
         <v>210</v>
       </c>
@@ -4401,8 +4450,11 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
         <v>211</v>
       </c>
@@ -4441,8 +4493,11 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
         <v>214</v>
       </c>
@@ -4481,7 +4536,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
         <v>215</v>
       </c>
@@ -4520,7 +4575,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="4">
         <v>216</v>
       </c>
@@ -4561,8 +4616,11 @@
       <c r="N21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4">
         <v>217</v>
       </c>
@@ -4603,8 +4661,11 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="30"/>
       <c r="B23" s="47" t="s">
         <v>110</v>
@@ -4637,7 +4698,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="4">
         <v>218</v>
       </c>
@@ -4672,8 +4733,11 @@
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4">
         <v>219</v>
       </c>
@@ -4709,6 +4773,9 @@
       </c>
       <c r="N25">
         <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4734,5 +4801,6 @@
     <hyperlink ref="G4" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/my_notebook/New URL project 2020-02 - Petr.xlsx
+++ b/my_notebook/New URL project 2020-02 - Petr.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="215">
   <si>
     <t>ID</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>отправленно</t>
+  </si>
+  <si>
+    <t>банкрот</t>
   </si>
 </sst>
 </file>
@@ -3806,7 +3809,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3927,6 +3930,9 @@
       <c r="M3" t="s">
         <v>209</v>
       </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="4">
@@ -3959,6 +3965,12 @@
       <c r="L4" s="45" t="s">
         <v>208</v>
       </c>
+      <c r="M4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="4">
@@ -4134,6 +4146,12 @@
       <c r="L9" s="45" t="s">
         <v>208</v>
       </c>
+      <c r="M9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4">
@@ -4165,6 +4183,12 @@
       </c>
       <c r="L10" s="45" t="s">
         <v>208</v>
+      </c>
+      <c r="M10" t="s">
+        <v>210</v>
+      </c>
+      <c r="O10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4305,7 +4329,7 @@
       <c r="F14" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="33" t="s">
@@ -4695,7 +4719,10 @@
         <v>208</v>
       </c>
       <c r="M23" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -4799,8 +4826,9 @@
     <hyperlink ref="G13" r:id="rId17"/>
     <hyperlink ref="G23" r:id="rId18" display="http://доброцен.рф/adriesa_maghazinov_"/>
     <hyperlink ref="G4" r:id="rId19"/>
+    <hyperlink ref="G14" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>